--- a/Data_S3_Biophysical parameters.xlsx
+++ b/Data_S3_Biophysical parameters.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bogbunug/Dropbox/August 2018/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafguerr/Dropbox/GGG Corn/Manuscript Figure Set/9_17_Satan Corn Supplemental/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADE82E0-1E0B-B14F-9CFE-4F7D4C3D764E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16720" xr2:uid="{E1682535-09FF-3B46-9989-F5DDD9F48840}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="16720" xr2:uid="{E1682535-09FF-3B46-9989-F5DDD9F48840}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -291,9 +292,6 @@
     </r>
   </si>
   <si>
-    <t>E. coli</t>
-  </si>
-  <si>
     <t>wt</t>
   </si>
   <si>
@@ -318,12 +316,6 @@
     <t>P21L/A26T/L28R</t>
   </si>
   <si>
-    <t>L. grayi</t>
-  </si>
-  <si>
-    <t>C. miridarum</t>
-  </si>
-  <si>
     <t>P23L</t>
   </si>
   <si>
@@ -343,6 +335,15 @@
   </si>
   <si>
     <t>P23L/E28T/L30R</t>
+  </si>
+  <si>
+    <t>DHFR E. coli</t>
+  </si>
+  <si>
+    <t>DHFR L. grayi</t>
+  </si>
+  <si>
+    <t>DHFR C. muridarum</t>
   </si>
 </sst>
 </file>
@@ -567,6 +568,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -578,12 +585,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -901,14 +902,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425C5215-7476-2242-AEF8-57816DBAAF99}">
   <dimension ref="E9:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="9" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="5:13" ht="32" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:13" ht="34" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
@@ -934,11 +935,11 @@
       </c>
     </row>
     <row r="11" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="G11" s="7">
         <v>14</v>
@@ -963,9 +964,9 @@
       </c>
     </row>
     <row r="12" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="10"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="7">
         <v>9.3000000000000007</v>
@@ -990,9 +991,9 @@
       </c>
     </row>
     <row r="13" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="10"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="7">
         <v>5.4</v>
@@ -1017,9 +1018,9 @@
       </c>
     </row>
     <row r="14" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="10"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="7">
         <v>1.7</v>
@@ -1044,9 +1045,9 @@
       </c>
     </row>
     <row r="15" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="10"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7">
         <v>7.9</v>
@@ -1071,9 +1072,9 @@
       </c>
     </row>
     <row r="16" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="10"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7">
         <v>0.31</v>
@@ -1098,9 +1099,9 @@
       </c>
     </row>
     <row r="17" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="10"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="7">
         <v>1.6</v>
@@ -1125,9 +1126,9 @@
       </c>
     </row>
     <row r="18" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="11"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="7">
         <v>1</v>
@@ -1152,11 +1153,11 @@
       </c>
     </row>
     <row r="19" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="12" t="s">
-        <v>16</v>
+      <c r="E19" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" s="7">
         <v>67</v>
@@ -1181,9 +1182,9 @@
       </c>
     </row>
     <row r="20" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="10"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="7">
         <v>5.6</v>
@@ -1208,9 +1209,9 @@
       </c>
     </row>
     <row r="21" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="10"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="7">
         <v>55</v>
@@ -1235,9 +1236,9 @@
       </c>
     </row>
     <row r="22" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="10"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="7">
         <v>7.2</v>
@@ -1262,9 +1263,9 @@
       </c>
     </row>
     <row r="23" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="10"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7">
         <v>15</v>
@@ -1289,9 +1290,9 @@
       </c>
     </row>
     <row r="24" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="10"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7">
         <v>0.2</v>
@@ -1316,9 +1317,9 @@
       </c>
     </row>
     <row r="25" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="10"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" s="7">
         <v>0.2</v>
@@ -1343,9 +1344,9 @@
       </c>
     </row>
     <row r="26" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="11"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" s="7">
         <v>0.15</v>
@@ -1370,11 +1371,11 @@
       </c>
     </row>
     <row r="27" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="12" t="s">
-        <v>17</v>
+      <c r="E27" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27" s="7">
         <v>11</v>
@@ -1399,9 +1400,9 @@
       </c>
     </row>
     <row r="28" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="10"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G28" s="7">
         <v>5.4</v>
@@ -1426,9 +1427,9 @@
       </c>
     </row>
     <row r="29" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="10"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G29" s="7">
         <v>5.0999999999999996</v>
@@ -1453,9 +1454,9 @@
       </c>
     </row>
     <row r="30" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="10"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G30" s="7">
         <v>1</v>
@@ -1480,9 +1481,9 @@
       </c>
     </row>
     <row r="31" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="10"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G31" s="7">
         <v>1.2</v>
@@ -1507,9 +1508,9 @@
       </c>
     </row>
     <row r="32" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="10"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G32" s="7">
         <v>0.24</v>
@@ -1534,9 +1535,9 @@
       </c>
     </row>
     <row r="33" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="10"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G33" s="7">
         <v>1.3</v>
@@ -1561,9 +1562,9 @@
       </c>
     </row>
     <row r="34" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="11"/>
+      <c r="E34" s="13"/>
       <c r="F34" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G34" s="7">
         <v>0.61</v>
@@ -1588,13 +1589,13 @@
       </c>
     </row>
     <row r="35" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E35" s="13"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E36" s="13"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E37" s="14"/>
+      <c r="E37" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
